--- a/micro_mirror/board/micro_mirror3-bom.xlsx
+++ b/micro_mirror/board/micro_mirror3-bom.xlsx
@@ -1457,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="E39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="39" spans="5:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E39" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>53</v>
